--- a/修改日志.xlsx
+++ b/修改日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="151">
   <si>
     <t>日期</t>
   </si>
@@ -912,6 +912,60 @@
   </si>
   <si>
     <t>out SheetBody : 输出的片体轮廓（可以用于拉伸）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新增：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+AGM.Modelling.GetNonPlanarEdgesByVertices
+得到连接在同一个vertex上，并且不属于输入平面face的所有的edge</t>
+    </r>
+  </si>
+  <si>
+    <t>AGM.Modelling.GetNonPlanarEdgesByVertices(  vertex | array of vertex, face  )
+得到连接在同一个vertex上，并且不属于输入平面face的所有的edge
+范例: get_nonplanar_edges_by_vertices.js</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">face : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输入的平面（返回edge时会删除属于平面的edge）</t>
+    </r>
+  </si>
+  <si>
+    <t>成功: 
+1.如果输入是一个vertex, 返回一个edge;
+2.如果输入是一组vertex, 返回一组edge
+失败:
+返回null</t>
+  </si>
+  <si>
+    <t>vertex | array of vertex : 一个点或者一组点, 得到连接在同一个vertex上的所有的edge</t>
   </si>
 </sst>
 </file>
@@ -1219,6 +1273,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99390</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>217118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1481</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>9144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13641455" y="31020140"/>
+          <a:ext cx="4300156" cy="3411526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1509,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1665,6 +1757,14 @@
         <v>135</v>
       </c>
     </row>
+    <row r="19" spans="1:2" ht="45">
+      <c r="A19" s="1">
+        <v>20181208</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1673,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="C67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2934,6 +3034,27 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="1:11" ht="75">
+      <c r="A71" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/修改日志.xlsx
+++ b/修改日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="154">
   <si>
     <t>日期</t>
   </si>
@@ -435,9 +435,6 @@
     <t>filepath：SAT文件路径</t>
   </si>
   <si>
-    <t>AGM.Modelling.SaveSat(filepath, version=-1)</t>
-  </si>
-  <si>
     <t>version:  SAT文件版本号，可以输入数字，比如16就代表16版本的Sat
 如果不设置version就是当前的Sat版本，当前的版本是28</t>
   </si>
@@ -460,32 +457,6 @@
   </si>
   <si>
     <t>filepath：导出的Step、Iges文件</t>
-  </si>
-  <si>
-    <r>
-      <t>AGM.Modelling.ExportFile(filepath, logpath)
-可以导出Step、Iges文件（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>保存Sat用AGM.Modelling.SaveSat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
   </si>
   <si>
     <t>equation_x\equation_y\equation_z: 字符串形式的线方程的三个分量
@@ -966,6 +937,89 @@
   </si>
   <si>
     <t>vertex | array of vertex : 一个点或者一组点, 得到连接在同一个vertex上的所有的edge</t>
+  </si>
+  <si>
+    <t>unit:
+单位，字符串，目前支持"millimeter"和"inch"
+如果用户不设置unit，默认是"millimeter"</t>
+  </si>
+  <si>
+    <t>product_id:
+SAT文件作者，字符串
+如果用户不设置product_id，默认是"This model is generated by MiSUMi Corporation.Copyright@MiSUMi"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新增：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+AGM.Modelling.SaveSat
+//AGM.Modelling.SaveSat( filepath, version, unit, product_id )
+保存时可以设置SAT文件的版本号，SAT文件的单位，SAT文件的作者
+（命令参数参考js_files\radf_init.js，命令使用参考js_files\Export.js）
+AGM.Modelling.ExportFile
+//AGM.Modelling.ExportFile( filepath, unit, logpath )
+保存时可以设置文件（SAT、STEP、IGES）的单位
+（命令参数参考js_files\radf_init.js，命令使用参考js_files\Export.js）
+AGM.Modelling.ImportFile
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这个命令的接口没有变，但是内部支持单位的转换；因为SID.exe默认的单位是mm，所以无论导入的模型（SAT、STEP、IGES）本身的单位是什么（millimeter, inch），该命令都会自动转换成mm，同时根据需要调整模型</t>
+    </r>
+  </si>
+  <si>
+    <t>AGM.Modelling.SaveSat(filepath, version=-1, unit="millimeter", product_id="This model is generated by MiSUMi Corporation.Copyright@MiSUMi")
+范例：Export.js</t>
+  </si>
+  <si>
+    <r>
+      <t>AGM.Modelling.ExportFile(filepath,  unit, logpath)
+可以导出Step、Iges文件（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>保存Sat用AGM.Modelling.SaveSat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+范例：Export.js</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1601,10 +1655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1706,7 +1760,7 @@
         <v>20181011</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="105">
@@ -1714,7 +1768,7 @@
         <v>20181030</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="105">
@@ -1722,7 +1776,7 @@
         <v>20181031</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="105">
@@ -1730,7 +1784,7 @@
         <v>20181105</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
@@ -1738,7 +1792,7 @@
         <v>20181107</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="120">
@@ -1746,7 +1800,7 @@
         <v>20181129</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="315">
@@ -1754,7 +1808,7 @@
         <v>20181205</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
@@ -1762,7 +1816,15 @@
         <v>20181208</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="225">
+      <c r="A20" s="1">
+        <v>20181228</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1775,8 +1837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2304,21 +2366,25 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" ht="75">
+    <row r="30" spans="1:11" ht="150">
       <c r="A30" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -2330,13 +2396,13 @@
         <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -2346,20 +2412,22 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" ht="45">
+    <row r="32" spans="1:11" ht="75">
       <c r="A32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -2372,25 +2440,25 @@
         <v>6</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -2401,19 +2469,19 @@
         <v>6</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C34" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="F34" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -2426,13 +2494,13 @@
         <v>6</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -2447,24 +2515,24 @@
         <v>6</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="F36" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -2474,19 +2542,19 @@
         <v>6</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -2499,25 +2567,25 @@
         <v>6</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D38" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="F38" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="G38" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="H38" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="10"/>
@@ -2528,28 +2596,28 @@
         <v>6</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C39" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="F39" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="G39" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="H39" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="I39" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>109</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
@@ -2832,16 +2900,16 @@
         <v>6</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -2855,16 +2923,16 @@
         <v>6</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C62" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>122</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -2878,13 +2946,13 @@
         <v>6</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -2899,10 +2967,10 @@
         <v>6</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -2918,7 +2986,7 @@
         <v>6</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -2935,13 +3003,13 @@
         <v>6</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C66" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -2953,10 +3021,10 @@
     </row>
     <row r="67" spans="1:11" ht="45">
       <c r="A67" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>14</v>
@@ -2976,13 +3044,13 @@
     </row>
     <row r="68" spans="1:11" ht="30">
       <c r="A68" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -2998,13 +3066,13 @@
         <v>6</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -3019,13 +3087,13 @@
         <v>6</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -3037,16 +3105,16 @@
     </row>
     <row r="71" spans="1:11" ht="75">
       <c r="A71" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>

--- a/修改日志.xlsx
+++ b/修改日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="159">
   <si>
     <t>日期</t>
   </si>
@@ -1020,6 +1020,48 @@
       <t>）
 范例：Export.js</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新增：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+AGM.Modelling.ScalePart
+//AGM.Modelling.ScalePart( scale )
+缩放整个零件文档里面所有的body
+AGM.Modelling.ScaleBody = modellingScaleBody
+//AGM.Modelling.ScaleBody( body, scale )
+缩放指定的body</t>
+    </r>
+  </si>
+  <si>
+    <t>AGM.Modelling.ScalePart( scale )
+缩放整个零件文档里面所有的body</t>
+  </si>
+  <si>
+    <t>AGM.Modelling.ScaleBody( body, scale )
+缩放指定的body</t>
+  </si>
+  <si>
+    <t>scale : double类型，缩放比例</t>
+  </si>
+  <si>
+    <t>body : 指定的body对象</t>
   </si>
 </sst>
 </file>
@@ -1330,15 +1372,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>99390</xdr:colOff>
+      <xdr:colOff>207064</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>217118</xdr:rowOff>
+      <xdr:rowOff>183987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1481</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>9144</xdr:rowOff>
+      <xdr:colOff>109155</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>166513</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1355,7 +1397,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13641455" y="31020140"/>
+          <a:off x="13749129" y="32320509"/>
           <a:ext cx="4300156" cy="3411526"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1655,10 +1697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1827,6 +1869,14 @@
         <v>151</v>
       </c>
     </row>
+    <row r="21" spans="1:2" ht="120">
+      <c r="A21" s="1">
+        <v>20181228</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1835,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3123,6 +3173,46 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
+    </row>
+    <row r="72" spans="1:11" ht="30">
+      <c r="A72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73" spans="1:11" ht="30">
+      <c r="A73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/修改日志.xlsx
+++ b/修改日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="170">
   <si>
     <t>日期</t>
   </si>
@@ -1062,6 +1062,152 @@
   </si>
   <si>
     <t>body : 指定的body对象</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">升级：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acis\IOP从R2018.1.1.0升级到R2019.1.0.0 HF9
+Bugfix : Acis sweep with draft [Incident: 181129-000002]</t>
+    </r>
+  </si>
+  <si>
+    <t>AGM.Sketcher.ConvertToPath( DoGSketch, out WireObject)
+将草图轮廓转换为扫略路径
+范例:SweepCut.js\SweepCut_2.js</t>
+  </si>
+  <si>
+    <t>out WireObject : 生成的扫略路径</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AGM.Modelling.Combine( blank, tool0, tool1, tool2...)
+将所有的body（blank, tool0 - tooln）合并到blank上
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注意：所有的body必须是互不相交的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+范例:Combine&amp;Separate.js</t>
+    </r>
+  </si>
+  <si>
+    <t>blank : 所有的body都合并到输入的blank body上</t>
+  </si>
+  <si>
+    <t>tool0 - tooln: 待合并的body，数量可以任意多</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">修改：
+AGM.Modelling.Sweep名称修改为AGM.Modelling.SweepByPath
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新增：
+AGM.Sketcher.ConvertToPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+//AGM.Sketcher.ConvertToPath( DoGSketch, out WireObject)
+（命令参数参考js_files\radf_init.js，命令使用参考js_files\SweepCut.js, SweepCut_2.js）</t>
+    </r>
+  </si>
+  <si>
+    <t>out Array of ModelObject : 输入是一个空的数组，拆分出来的body放到数组中输出</t>
+  </si>
+  <si>
+    <t>ModelObject : 输入的待拆分的body</t>
+  </si>
+  <si>
+    <t>AGM.Modelling.Separate( ModelObject, out Array of ModelObject)
+如果ModelObject内部包含不相连的几块，则将每块都转成一个body；如果ModelObjec本身只有一块，那么输出的数组就只包含输入的ModelObjec一个body
+范例:Combine&amp;Separate.js</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新增：
+AGM.Modelling.Combine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+//AGM.Modelling.Combine( blank, tool0, tool1, tool2...)
+（命令参数参考js_files\radf_init.js，命令使用参考js_files\Combine&amp;Separate.js）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AGM.Modelling.Separate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//AGM.Modelling.Separate( ModelObject, out Array of ModelObject)
+（命令参数参考js_files\radf_init.js，命令使用参考js_files\Combine&amp;Separate.js）</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1163,7 +1309,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1195,6 +1341,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1379,8 +1528,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>109155</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>166513</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>357013</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1697,10 +1846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1877,6 +2026,30 @@
         <v>154</v>
       </c>
     </row>
+    <row r="22" spans="1:2" ht="45">
+      <c r="A22" s="1">
+        <v>20180213</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="90">
+      <c r="A23" s="1">
+        <v>20180221</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="105">
+      <c r="A24" s="1">
+        <v>20180222</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1885,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1910,17 +2083,17 @@
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="70.5" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -3213,6 +3386,69 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
+    </row>
+    <row r="74" spans="1:11" ht="45">
+      <c r="A74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+    </row>
+    <row r="75" spans="1:11" ht="60">
+      <c r="A75" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+    </row>
+    <row r="76" spans="1:11" ht="90">
+      <c r="A76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/修改日志.xlsx
+++ b/修改日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="173">
   <si>
     <t>日期</t>
   </si>
@@ -1208,6 +1208,50 @@
       <t>//AGM.Modelling.Separate( ModelObject, out Array of ModelObject)
 （命令参数参考js_files\radf_init.js，命令使用参考js_files\Combine&amp;Separate.js）</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新增：
+AGM.Modelling.ConvertFaceToPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+//AGM.Modelling.ConvertFaceToPath( face, out WireObject )
+（命令参数参考js_files\radf_init.js，命令使用参考js_files\SweepCut_3.js）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>face : 输入的face</t>
+  </si>
+  <si>
+    <t>AGM.Modelling.ConvertFaceToPath( face, out WireObject )
+提取face最外层的轮廓生成扫略路径
+范例:SweepCut_3.js</t>
   </si>
 </sst>
 </file>
@@ -1846,10 +1890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2050,6 +2094,14 @@
         <v>169</v>
       </c>
     </row>
+    <row r="25" spans="1:2" ht="75">
+      <c r="A25" s="1">
+        <v>20180227</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2058,10 +2110,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3449,6 +3501,27 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
+    </row>
+    <row r="77" spans="1:11" ht="45">
+      <c r="A77" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/修改日志.xlsx
+++ b/修改日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="181">
   <si>
     <t>日期</t>
   </si>
@@ -164,14 +164,6 @@
   </si>
   <si>
     <t>AGM.Modelling.SetEntityColor( entity|Array of entities, r, g, b )</t>
-  </si>
-  <si>
-    <t>AGM.Modelling.PickEdge( point, vector, apertureb)
-范例：blend.js\chamfer1.js\chamfer2.js</t>
-  </si>
-  <si>
-    <t>AGM.Modelling.PickFace( point, vector, apertureb)
-范例：chamfer2.js</t>
   </si>
   <si>
     <t>AGM.Modelling.ChamferEdge( edge|Array of edges, left_range, left_face, right_range)
@@ -1252,6 +1244,74 @@
     <t>AGM.Modelling.ConvertFaceToPath( face, out WireObject )
 提取face最外层的轮廓生成扫略路径
 范例:SweepCut_3.js</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>修改：
+AGM.Modelling.PickFace支持从特定body上选择面
+//AGM.Modelling.PickFace( point, vector, apertureb, body)
+AGM.Modelling.PickEdge支持从特定body上选择边
+//AGM.Modelling.PickEdge( point, vector, apertureb, body)
+AGM.Modelling.PickVertex支持从特定body上选择顶点
+//AGM.Modelling.PickVertex( point, vector, apertureb, body)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>object : 成功返回face对象；失败返回null</t>
+  </si>
+  <si>
+    <t>AGM.Modelling.PickEdge( point, vector, apertureb, body)
+范例：blend.js\chamfer1.js\chamfer2.js</t>
+  </si>
+  <si>
+    <t>AGM.Modelling.PickFace( point, vector, apertureb, body)
+范例：chamfer2.js</t>
+  </si>
+  <si>
+    <t>object : 成功返回Vertex对象；失败返回null</t>
+  </si>
+  <si>
+    <t>AGM.Modelling.PickVertex( point, vector, apertureb, body)</t>
+  </si>
+  <si>
+    <t>body : 如果有，表示从特定的body上选择面</t>
+  </si>
+  <si>
+    <t>body : 如果有，表示从特定的body上选择边</t>
+  </si>
+  <si>
+    <t>body : 如果有，表示从特定的body上选择顶点</t>
+  </si>
+  <si>
+    <t>AGM.Modelling.BlendEdge( edge|Array of edges, radius )
+范例：chamfer2.js</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1413,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1392,6 +1452,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1414,13 +1477,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2685724</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>171183</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1452,13 +1515,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>602526</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>165653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>268553</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>127297</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1490,13 +1553,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>196802</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>140805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>960782</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>131293</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1528,13 +1591,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>41413</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>304954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>957119</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>1656522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1566,13 +1629,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>207064</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>183987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>109155</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>357013</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1890,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1931,7 +1994,7 @@
         <v>20180620</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1939,7 +2002,7 @@
         <v>20180629</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45">
@@ -1947,7 +2010,7 @@
         <v>20180702</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45">
@@ -1955,7 +2018,7 @@
         <v>20180706</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
@@ -1963,7 +2026,7 @@
         <v>20180707</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
@@ -1971,7 +2034,7 @@
         <v>20180714</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
@@ -1979,7 +2042,7 @@
         <v>20180723</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
@@ -1987,7 +2050,7 @@
         <v>20180725</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="75">
@@ -1995,7 +2058,7 @@
         <v>20181011</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="105">
@@ -2003,7 +2066,7 @@
         <v>20181030</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="105">
@@ -2011,7 +2074,7 @@
         <v>20181031</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="105">
@@ -2019,7 +2082,7 @@
         <v>20181105</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
@@ -2027,7 +2090,7 @@
         <v>20181107</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="120">
@@ -2035,7 +2098,7 @@
         <v>20181129</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="315">
@@ -2043,7 +2106,7 @@
         <v>20181205</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
@@ -2051,7 +2114,7 @@
         <v>20181208</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="225">
@@ -2059,7 +2122,7 @@
         <v>20181228</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="120">
@@ -2067,7 +2130,7 @@
         <v>20181228</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
@@ -2075,7 +2138,7 @@
         <v>20180213</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="90">
@@ -2083,7 +2146,7 @@
         <v>20180221</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="105">
@@ -2091,7 +2154,7 @@
         <v>20180222</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="75">
@@ -2099,7 +2162,15 @@
         <v>20180227</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="120">
+      <c r="A26" s="1">
+        <v>20180228</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2110,10 +2181,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2199,10 +2270,10 @@
     </row>
     <row r="4" spans="1:11" ht="120">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>14</v>
@@ -2213,19 +2284,21 @@
       <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="45">
+    <row r="5" spans="1:11" ht="60">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>14</v>
@@ -2236,7 +2309,9 @@
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="14" t="s">
+        <v>177</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -2245,73 +2320,85 @@
     </row>
     <row r="6" spans="1:11" ht="60">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>176</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>179</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="75">
+    <row r="7" spans="1:11" ht="60">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="45">
-      <c r="A8" s="6" t="s">
-        <v>29</v>
+    <row r="8" spans="1:11" ht="75">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+    <row r="9" spans="1:11" ht="45">
+      <c r="A9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -2477,19 +2564,11 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" ht="30">
-      <c r="A22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>31</v>
-      </c>
+    <row r="22" spans="1:11">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -2498,18 +2577,18 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="75">
+    <row r="23" spans="1:11" ht="30">
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -2519,17 +2598,19 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" ht="30">
-      <c r="A24" s="6" t="s">
-        <v>29</v>
+    <row r="24" spans="1:11" ht="75">
+      <c r="A24" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -2538,19 +2619,17 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" ht="165">
+    <row r="25" spans="1:11" ht="30">
       <c r="A25" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>42</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -2559,59 +2638,61 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="90">
-      <c r="A26" s="5" t="s">
-        <v>6</v>
+    <row r="26" spans="1:11" ht="165">
+      <c r="A26" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" ht="45">
-      <c r="A27" s="6" t="s">
-        <v>52</v>
+    <row r="27" spans="1:11" ht="90">
+      <c r="A27" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" ht="60">
-      <c r="A28" s="5" t="s">
-        <v>54</v>
+    <row r="28" spans="1:11" ht="45">
+      <c r="A28" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -2622,15 +2703,15 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" ht="45">
-      <c r="A29" s="6" t="s">
-        <v>29</v>
+    <row r="29" spans="1:11" ht="60">
+      <c r="A29" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -2641,274 +2722,280 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" ht="150">
-      <c r="A30" s="5" t="s">
-        <v>6</v>
+    <row r="30" spans="1:11" ht="45">
+      <c r="A30" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>150</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" ht="45">
+    <row r="31" spans="1:11" ht="150">
       <c r="A31" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>67</v>
+        <v>150</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" ht="75">
+    <row r="32" spans="1:11" ht="45">
       <c r="A32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="1:11" ht="60">
+        <v>66</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" ht="75">
       <c r="A33" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+        <v>147</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" ht="60">
       <c r="A34" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-    </row>
-    <row r="35" spans="1:11" ht="45">
+        <v>74</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="1:11" ht="60">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="1:11" ht="135">
+      <c r="C35" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" ht="45">
       <c r="A36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>115</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" ht="45">
+    <row r="37" spans="1:11" ht="135">
       <c r="A37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>89</v>
+      <c r="B37" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>97</v>
+        <v>83</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="I37" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" ht="60">
+    <row r="38" spans="1:11" ht="45">
       <c r="A38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="F38" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I38" s="11"/>
-      <c r="J38" s="10"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" ht="75">
+    <row r="39" spans="1:11" ht="60">
       <c r="A39" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C39" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" ht="75">
+      <c r="A40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="F40" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="G40" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="I40" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H39" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="10"/>
@@ -3170,44 +3257,34 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" ht="60">
-      <c r="A61" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-    </row>
-    <row r="62" spans="1:11" ht="30">
+    <row r="61" spans="1:11">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+    </row>
+    <row r="62" spans="1:11" ht="60">
       <c r="A62" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>119</v>
+      <c r="B62" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -3220,16 +3297,18 @@
       <c r="A63" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E63" s="5"/>
+      <c r="B63" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -3242,12 +3321,14 @@
         <v>6</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" s="5"/>
+        <v>121</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -3261,9 +3342,11 @@
         <v>6</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" s="5"/>
+        <v>124</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -3273,19 +3356,15 @@
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="1:11" ht="45">
+    <row r="66" spans="1:11" ht="30">
       <c r="A66" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -3296,20 +3375,18 @@
     </row>
     <row r="67" spans="1:11" ht="45">
       <c r="A67" s="5" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -3317,18 +3394,22 @@
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="1:11" ht="30">
-      <c r="A68" s="6" t="s">
-        <v>135</v>
+    <row r="68" spans="1:11" ht="45">
+      <c r="A68" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
+        <v>130</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -3336,19 +3417,17 @@
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="1:11" ht="45">
-      <c r="A69" s="5" t="s">
-        <v>6</v>
+    <row r="69" spans="1:11" ht="30">
+      <c r="A69" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>140</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -3362,13 +3441,13 @@
         <v>6</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -3378,18 +3457,18 @@
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:11" ht="75">
+    <row r="71" spans="1:11" ht="45">
       <c r="A71" s="5" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -3399,17 +3478,19 @@
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:11" ht="30">
+    <row r="72" spans="1:11" ht="75">
       <c r="A72" s="5" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D72" s="5"/>
+        <v>146</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -3423,14 +3504,12 @@
         <v>6</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>157</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -3439,18 +3518,18 @@
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:11" ht="45">
+    <row r="74" spans="1:11" ht="30">
       <c r="A74" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -3460,18 +3539,18 @@
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="1:11" ht="60">
+    <row r="75" spans="1:11" ht="45">
       <c r="A75" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -3481,18 +3560,18 @@
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:11" ht="90">
+    <row r="76" spans="1:11" ht="60">
       <c r="A76" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -3502,18 +3581,18 @@
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="1:11" ht="45">
+    <row r="77" spans="1:11" ht="90">
       <c r="A77" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -3522,6 +3601,48 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
+    </row>
+    <row r="78" spans="1:11" ht="45">
+      <c r="A78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+    </row>
+    <row r="79" spans="1:11" ht="45">
+      <c r="A79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/修改日志.xlsx
+++ b/修改日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="1" r:id="rId1"/>
@@ -1449,11 +1449,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1955,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2183,7 +2183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2206,17 +2206,17 @@
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" ht="70.5" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -2284,7 +2284,7 @@
       <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>178</v>
       </c>
       <c r="G4" s="6"/>
@@ -2309,7 +2309,7 @@
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>177</v>
       </c>
       <c r="G5" s="6"/>
@@ -2334,7 +2334,7 @@
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>179</v>
       </c>
       <c r="G6" s="6"/>

--- a/修改日志.xlsx
+++ b/修改日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="183">
   <si>
     <t>日期</t>
   </si>
@@ -1312,6 +1312,44 @@
   <si>
     <t>AGM.Modelling.BlendEdge( edge|Array of edges, radius )
 范例：chamfer2.js</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bugfix :
+190226-000004 : AGM will crash when existing with more than one working plane in one sketch doc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>bugfix : 
+pick edge\pick face\pick vertex
+问题来自于0312的代码修改</t>
   </si>
 </sst>
 </file>
@@ -1953,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2171,6 +2209,22 @@
       </c>
       <c r="B26" s="3" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="45">
+      <c r="A27" s="1">
+        <v>20180312</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45">
+      <c r="A28" s="1">
+        <v>20180313</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/修改日志.xlsx
+++ b/修改日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="184">
   <si>
     <t>日期</t>
   </si>
@@ -1350,6 +1350,10 @@
     <t>bugfix : 
 pick edge\pick face\pick vertex
 问题来自于0312的代码修改</t>
+  </si>
+  <si>
+    <t>新增：
+支持x_t导出</t>
   </si>
 </sst>
 </file>
@@ -1991,10 +1995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2173,7 +2177,7 @@
     </row>
     <row r="22" spans="1:2" ht="45">
       <c r="A22" s="1">
-        <v>20180213</v>
+        <v>20190213</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>157</v>
@@ -2181,7 +2185,7 @@
     </row>
     <row r="23" spans="1:2" ht="90">
       <c r="A23" s="1">
-        <v>20180221</v>
+        <v>20190221</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>163</v>
@@ -2189,7 +2193,7 @@
     </row>
     <row r="24" spans="1:2" ht="105">
       <c r="A24" s="1">
-        <v>20180222</v>
+        <v>20190222</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>167</v>
@@ -2197,7 +2201,7 @@
     </row>
     <row r="25" spans="1:2" ht="75">
       <c r="A25" s="1">
-        <v>20180227</v>
+        <v>20190227</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>168</v>
@@ -2205,7 +2209,7 @@
     </row>
     <row r="26" spans="1:2" ht="120">
       <c r="A26" s="1">
-        <v>20180228</v>
+        <v>20190228</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>171</v>
@@ -2213,7 +2217,7 @@
     </row>
     <row r="27" spans="1:2" ht="45">
       <c r="A27" s="1">
-        <v>20180312</v>
+        <v>20190312</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>181</v>
@@ -2221,10 +2225,18 @@
     </row>
     <row r="28" spans="1:2" ht="45">
       <c r="A28" s="1">
-        <v>20180313</v>
+        <v>20190313</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="1">
+        <v>20190505</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/修改日志.xlsx
+++ b/修改日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="185">
   <si>
     <t>日期</t>
   </si>
@@ -1354,6 +1354,10 @@
   <si>
     <t>新增：
 支持x_t导出</t>
+  </si>
+  <si>
+    <t>新增：
+支持dwg\dxf导出</t>
   </si>
 </sst>
 </file>
@@ -1995,10 +1999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2237,6 +2241,14 @@
       </c>
       <c r="B29" s="3" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30">
+      <c r="A30" s="1">
+        <v>20190507</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/修改日志.xlsx
+++ b/修改日志.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="1" r:id="rId1"/>
     <sheet name="命令列表" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="SIDCmd参数列表" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="201">
   <si>
     <t>日期</t>
   </si>
@@ -988,33 +988,6 @@
   </si>
   <si>
     <r>
-      <t>AGM.Modelling.ExportFile(filepath,  unit, logpath)
-可以导出Step、Iges文件（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>保存Sat用AGM.Modelling.SaveSat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）
-范例：Export.js</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
@@ -1358,6 +1331,111 @@
   <si>
     <t>新增：
 支持dwg\dxf导出</t>
+  </si>
+  <si>
+    <t>ModelObject : 输入的body对象</t>
+  </si>
+  <si>
+    <t>bodyName：body名称</t>
+  </si>
+  <si>
+    <r>
+      <t>AGM.Modelling.ExportFile(filepath,  unit, part, logpath)
+可以导出Step、Iges文件（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>保存Sat用AGM.Modelling.SaveSat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+范例：Export.js</t>
+    </r>
+  </si>
+  <si>
+    <t>part: 0或者1，0表示1️以装配方式导出iges、step；1表示以multi-body的零件形式导出iges、step；默认是1</t>
+  </si>
+  <si>
+    <t>AGM.Modelling.SetBodyName( ModelObject, bodyName )
+设置body的名称（导出的iges、step可以包含body的名称）
+范例:body_name.js</t>
+  </si>
+  <si>
+    <t>SIDCmd支持的参数</t>
+  </si>
+  <si>
+    <t>‘-file</t>
+  </si>
+  <si>
+    <t>csv文件名称</t>
+  </si>
+  <si>
+    <t>‘-r</t>
+  </si>
+  <si>
+    <t>‘-format</t>
+  </si>
+  <si>
+    <t>‘-part</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">修改：
+AGM.Modelling.ExportFile(filepath,  unit, logpath)新增一个参数，改为 AGM.Modelling.ExportFile(filepath,  unit, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>part</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, logpath)
+part: 0或者1，0表示️以装配方式导出iges、step；1表示以multi-body的零件形式导出iges、step；默认是1
+新增：
+AGM.Modelling.SetBodyName
+//AGM.Modelling.SetBodyName( ModelObject, bodyName )
+设置body的名称（导出的iges、step可以包含body的名称）</t>
+    </r>
+  </si>
+  <si>
+    <t>0或者1，0表示以装配方式导出iges、step；1表示以multi-body的零件形式导出iges、step</t>
+  </si>
+  <si>
+    <t>‘-unit</t>
+  </si>
+  <si>
+    <t>导出文件单位，目前支持millimeter和inch</t>
+  </si>
+  <si>
+    <t>csv文件中待处理行的序号，从0开始</t>
+  </si>
+  <si>
+    <t>导出文件格式</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1537,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1500,6 +1578,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1999,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2176,7 +2257,7 @@
         <v>20181228</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
@@ -2184,7 +2265,7 @@
         <v>20190213</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="90">
@@ -2192,7 +2273,7 @@
         <v>20190221</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="105">
@@ -2200,7 +2281,7 @@
         <v>20190222</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="75">
@@ -2208,7 +2289,7 @@
         <v>20190227</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="120">
@@ -2216,7 +2297,7 @@
         <v>20190228</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="45">
@@ -2224,7 +2305,7 @@
         <v>20190312</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
@@ -2232,7 +2313,7 @@
         <v>20190313</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
@@ -2240,7 +2321,7 @@
         <v>20190505</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
@@ -2248,7 +2329,15 @@
         <v>20190507</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="150">
+      <c r="A31" s="1">
+        <v>20190524</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2259,10 +2348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2351,7 +2440,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>14</v>
@@ -2363,7 +2452,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -2373,10 +2462,10 @@
     </row>
     <row r="5" spans="1:11" ht="60">
       <c r="A5" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>14</v>
@@ -2388,7 +2477,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -2398,10 +2487,10 @@
     </row>
     <row r="6" spans="1:11" ht="60">
       <c r="A6" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>14</v>
@@ -2413,7 +2502,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -2426,7 +2515,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
@@ -2865,12 +2954,12 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" ht="75">
+    <row r="33" spans="1:11" ht="120">
       <c r="A33" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>67</v>
@@ -2878,10 +2967,12 @@
       <c r="D33" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -3582,10 +3673,10 @@
         <v>6</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -3601,13 +3692,13 @@
         <v>6</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -3622,13 +3713,13 @@
         <v>6</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>127</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -3643,13 +3734,13 @@
         <v>6</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -3664,13 +3755,13 @@
         <v>6</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -3685,13 +3776,13 @@
         <v>6</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -3706,13 +3797,13 @@
         <v>6</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -3721,6 +3812,27 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
+    </row>
+    <row r="80" spans="1:11" ht="45">
+      <c r="A80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3734,12 +3846,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/修改日志.xlsx
+++ b/修改日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="1" r:id="rId1"/>
@@ -1576,11 +1576,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2082,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2373,17 +2373,17 @@
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="70.5" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -3848,8 +3848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3864,7 +3864,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>190</v>
       </c>
       <c r="B2" t="s">
@@ -3872,7 +3872,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>192</v>
       </c>
       <c r="B3" t="s">
@@ -3880,7 +3880,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>193</v>
       </c>
       <c r="B4" t="s">
@@ -3888,7 +3888,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>194</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3896,7 +3896,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>197</v>
       </c>
       <c r="B6" t="s">

--- a/修改日志.xlsx
+++ b/修改日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="207">
   <si>
     <t>日期</t>
   </si>
@@ -446,9 +446,6 @@
   </si>
   <si>
     <t>logpath：log文件的路径，如果设置就在用户给定的路径下生成，如果不设置就是当前导入的文件所在的路径下生成</t>
-  </si>
-  <si>
-    <t>filepath：导出的Step、Iges文件</t>
   </si>
   <si>
     <t>equation_x\equation_y\equation_z: 字符串形式的线方程的三个分量
@@ -1339,33 +1336,6 @@
     <t>bodyName：body名称</t>
   </si>
   <si>
-    <r>
-      <t>AGM.Modelling.ExportFile(filepath,  unit, part, logpath)
-可以导出Step、Iges文件（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>保存Sat用AGM.Modelling.SaveSat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）
-范例：Export.js</t>
-    </r>
-  </si>
-  <si>
     <t>part: 0或者1，0表示1️以装配方式导出iges、step；1表示以multi-body的零件形式导出iges、step；默认是1</t>
   </si>
   <si>
@@ -1436,6 +1406,85 @@
   </si>
   <si>
     <t>导出文件格式</t>
+  </si>
+  <si>
+    <r>
+      <t>AGM.Modelling.ExportFile(filepath,  unit, part, logpath)
+可以导出Step、Iges、x_t文件（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>保存Sat用AGM.Modelling.SaveSat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+范例：Export.js</t>
+    </r>
+  </si>
+  <si>
+    <t>filepath：导出的Step、Iges、x_t文件</t>
+  </si>
+  <si>
+    <t>filepath ： dwg、dxf文件路径</t>
+  </si>
+  <si>
+    <t>drawingName：用户在导出的dwg、dxf里面设置的字符串</t>
+  </si>
+  <si>
+    <t>AGM.Modelling.ExportDrw( filepath, drawingName )
+导出dwg、dxf用新的命令，drawingName是用户在导出的dwg、dxf里面设置的字符串；原来的AGM.Modelling.ExportFile不再支持导出dxf、dwg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">修改：
+如果文件导出命令包含下列几种格式，即使用户没有选择导出sat，AGM也会默认同时导出sat
+1. 装配模式的step、iges
+2. dwg、dxf、x_t
+因为这几种格式是通过sat转换过来的，而零件模式的step、iges是通过内存中的Acis body转换过来的，不需要依赖sat文件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGM.Modelling.ExportDrw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+//AGM.Modelling.ExportDrw( filepath, drawingName )
+导出dwg、dxf用新的命令，drawingName是用户在导出的dwg、dxf里面设置的字符串；原来的AGM.Modelling.ExportFile不再支持导出dxf、dwg
+</t>
+    </r>
+  </si>
+  <si>
+    <t>‘-drawingname</t>
+  </si>
+  <si>
+    <t>用户设置的DWG、DXF里面的字符串</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1586,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1582,6 +1631,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2080,10 +2133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2193,7 +2246,7 @@
         <v>20181030</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="105">
@@ -2201,7 +2254,7 @@
         <v>20181031</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="105">
@@ -2209,7 +2262,7 @@
         <v>20181105</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
@@ -2217,7 +2270,7 @@
         <v>20181107</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="120">
@@ -2225,7 +2278,7 @@
         <v>20181129</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="315">
@@ -2233,7 +2286,7 @@
         <v>20181205</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
@@ -2241,7 +2294,7 @@
         <v>20181208</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="225">
@@ -2249,7 +2302,7 @@
         <v>20181228</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="120">
@@ -2257,7 +2310,7 @@
         <v>20181228</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
@@ -2265,7 +2318,7 @@
         <v>20190213</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="90">
@@ -2273,7 +2326,7 @@
         <v>20190221</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="105">
@@ -2281,7 +2334,7 @@
         <v>20190222</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="75">
@@ -2289,7 +2342,7 @@
         <v>20190227</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="120">
@@ -2297,7 +2350,7 @@
         <v>20190228</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="45">
@@ -2305,7 +2358,7 @@
         <v>20190312</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
@@ -2313,7 +2366,7 @@
         <v>20190313</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
@@ -2321,7 +2374,7 @@
         <v>20190505</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
@@ -2329,7 +2382,7 @@
         <v>20190507</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="150">
@@ -2337,7 +2390,15 @@
         <v>20190524</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="180">
+      <c r="A32" s="1">
+        <v>20190527</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2348,10 +2409,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2440,7 +2501,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>14</v>
@@ -2452,7 +2513,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -2462,10 +2523,10 @@
     </row>
     <row r="5" spans="1:11" ht="60">
       <c r="A5" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>14</v>
@@ -2477,7 +2538,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -2487,10 +2548,10 @@
     </row>
     <row r="6" spans="1:11" ht="60">
       <c r="A6" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>14</v>
@@ -2502,7 +2563,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -2515,7 +2576,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
@@ -2913,7 +2974,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>61</v>
@@ -2922,10 +2983,10 @@
         <v>62</v>
       </c>
       <c r="E31" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -2959,16 +3020,16 @@
         <v>6</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>66</v>
@@ -2984,25 +3045,25 @@
         <v>6</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -3013,19 +3074,19 @@
         <v>6</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="F35" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -3038,13 +3099,13 @@
         <v>6</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3059,24 +3120,24 @@
         <v>6</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -3086,19 +3147,19 @@
         <v>6</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="E38" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>91</v>
-      </c>
       <c r="F38" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -3111,25 +3172,25 @@
         <v>6</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>94</v>
-      </c>
       <c r="F39" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="10"/>
@@ -3140,28 +3201,28 @@
         <v>6</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="E40" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="F40" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="G40" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="I40" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
@@ -3444,16 +3505,16 @@
         <v>6</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -3467,16 +3528,16 @@
         <v>6</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C63" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="E63" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>118</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -3490,13 +3551,13 @@
         <v>6</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -3511,10 +3572,10 @@
         <v>6</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -3530,7 +3591,7 @@
         <v>6</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -3547,13 +3608,13 @@
         <v>6</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -3565,10 +3626,10 @@
     </row>
     <row r="68" spans="1:11" ht="45">
       <c r="A68" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>14</v>
@@ -3588,13 +3649,13 @@
     </row>
     <row r="69" spans="1:11" ht="30">
       <c r="A69" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -3610,13 +3671,13 @@
         <v>6</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -3631,13 +3692,13 @@
         <v>6</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -3649,16 +3710,16 @@
     </row>
     <row r="72" spans="1:11" ht="75">
       <c r="A72" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -3673,10 +3734,10 @@
         <v>6</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -3692,13 +3753,13 @@
         <v>6</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -3713,13 +3774,13 @@
         <v>6</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -3734,13 +3795,13 @@
         <v>6</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -3755,13 +3816,13 @@
         <v>6</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -3776,13 +3837,13 @@
         <v>6</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -3797,13 +3858,13 @@
         <v>6</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -3818,13 +3879,13 @@
         <v>6</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C80" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -3833,6 +3894,27 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
+    </row>
+    <row r="81" spans="1:11" ht="60">
+      <c r="A81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3846,10 +3928,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3860,47 +3942,55 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
       <c r="A5" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/修改日志.xlsx
+++ b/修改日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="1" r:id="rId1"/>
@@ -1448,9 +1448,15 @@
 导出dwg、dxf用新的命令，drawingName是用户在导出的dwg、dxf里面设置的字符串；原来的AGM.Modelling.ExportFile不再支持导出dxf、dwg</t>
   </si>
   <si>
+    <t>‘-drawingname</t>
+  </si>
+  <si>
+    <t>用户设置的DWG、DXF里面的字符串</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">修改：
-如果文件导出命令包含下列几种格式，即使用户没有选择导出sat，AGM也会默认同时导出sat
+1.如果文件导出命令包含下列几种格式，即使用户没有选择导出sat，AGM也会默认同时导出sat
 1. 装配模式的step、iges
 2. dwg、dxf、x_t
 因为这几种格式是通过sat转换过来的，而零件模式的step、iges是通过内存中的Acis body转换过来的，不需要依赖sat文件
@@ -1464,7 +1470,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>AGM.Modelling.ExportDrw</t>
+      <t>2.AGM.Modelling.ExportDrw</t>
     </r>
     <r>
       <rPr>
@@ -1477,14 +1483,10 @@
       <t xml:space="preserve">
 //AGM.Modelling.ExportDrw( filepath, drawingName )
 导出dwg、dxf用新的命令，drawingName是用户在导出的dwg、dxf里面设置的字符串；原来的AGM.Modelling.ExportFile不再支持导出dxf、dwg
+3. Export unit修复
+4. SIDCmd新增支持-drawingname参数，用户可以在导出的dwg、dxf里面设置字符串
 </t>
     </r>
-  </si>
-  <si>
-    <t>‘-drawingname</t>
-  </si>
-  <si>
-    <t>用户设置的DWG、DXF里面的字符串</t>
   </si>
 </sst>
 </file>
@@ -1628,13 +1630,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2133,10 +2135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2393,12 +2395,17 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="180">
+    <row r="32" spans="1:2" ht="240">
       <c r="A32" s="1">
         <v>20190527</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2434,17 +2441,17 @@
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="70.5" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -3930,8 +3937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3986,11 +3993,11 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>205</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/修改日志.xlsx
+++ b/修改日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="211">
   <si>
     <t>日期</t>
   </si>
@@ -1444,14 +1444,7 @@
     <t>drawingName：用户在导出的dwg、dxf里面设置的字符串</t>
   </si>
   <si>
-    <t>AGM.Modelling.ExportDrw( filepath, drawingName )
-导出dwg、dxf用新的命令，drawingName是用户在导出的dwg、dxf里面设置的字符串；原来的AGM.Modelling.ExportFile不再支持导出dxf、dwg</t>
-  </si>
-  <si>
     <t>‘-drawingname</t>
-  </si>
-  <si>
-    <t>用户设置的DWG、DXF里面的字符串</t>
   </si>
   <si>
     <r>
@@ -1487,6 +1480,131 @@
 4. SIDCmd新增支持-drawingname参数，用户可以在导出的dwg、dxf里面设置字符串
 </t>
     </r>
+  </si>
+  <si>
+    <t>drawingView ：整数类型
+参数说明如下：
+个位上的1或者0表示是否导出主视图；
+十位上的1或者0表示是否导出右视图；
+百位上的1或者0表示是否导出俯视图；
+比如：
+drawingView=101表示导出主视图和俯视图
+drawingView=11表示导出主视图和右视图
+drawingView=100表示导出俯视图
+默认drawingView=111导出全部视图</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">修改：
+1. AGM.Modelling.ExportDrw新增了一个参数drawingView控制dwg、dxf视图的导出
+//AGM.Modelling.ExportDrw( filepath, drawingName, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drawingView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )
+drawingView用数字表示：
+个位上的1或者0表示是否导出主视图；
+十位上的1或者0表示是否导出右视图；
+百位上的1或者0表示是否导出俯视图；
+比如：
+drawingView=101表示导出主视图和俯视图
+drawingView=11表示导出主视图和右视图
+drawingView=100表示导出俯视图
+默认drawingView=111导出全部视图
+2. SIDCmd新增支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-drawingview</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参数，用户可以控制导出的dwg、dxf里面的视图
+参数说明参考AGM.Modelling.ExportDrw</t>
+    </r>
+  </si>
+  <si>
+    <t>‘-drawingview</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AGM.Modelling.ExportDrw( filepath, drawingName, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drawingView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )
+导出dwg、dxf用新的命令，drawingName是用户在导出的dwg、dxf里面设置的字符串；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drawingView用来控制导出的dwg、dxf里面的视图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；原来的AGM.Modelling.ExportFile不再支持导出dwg、dxf</t>
+    </r>
+  </si>
+  <si>
+    <t>用户设置的dwg、dxf里面的字符串</t>
+  </si>
+  <si>
+    <t>用户可以控制导出的dwg、dxf里面的视图，参数说明参考AGM.Modelling.ExportDrw</t>
   </si>
 </sst>
 </file>
@@ -1588,7 +1706,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1630,13 +1748,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1739,8 +1858,8 @@
       <xdr:rowOff>140805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>960782</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3770657</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>131293</xdr:rowOff>
     </xdr:to>
@@ -1815,8 +1934,8 @@
       <xdr:rowOff>183987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>109155</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52005</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>357013</xdr:rowOff>
     </xdr:to>
@@ -2137,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2400,12 +2519,15 @@
         <v>20190527</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="225">
+      <c r="A33" s="1">
+        <v>20190528</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2418,8 +2540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView topLeftCell="B75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2428,7 +2550,7 @@
     <col min="2" max="2" width="59.7109375" customWidth="1"/>
     <col min="3" max="3" width="58.28515625" customWidth="1"/>
     <col min="4" max="4" width="38.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="5" max="5" width="66.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" customWidth="1"/>
@@ -2441,17 +2563,17 @@
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="70.5" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -3902,12 +4024,12 @@
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
     </row>
-    <row r="81" spans="1:11" ht="60">
+    <row r="81" spans="1:11" ht="150">
       <c r="A81" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>201</v>
@@ -3915,7 +4037,9 @@
       <c r="D81" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E81" s="4"/>
+      <c r="E81" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -3935,10 +4059,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3993,11 +4117,19 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>205</v>
+      <c r="A7" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/修改日志.xlsx
+++ b/修改日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="1" r:id="rId1"/>
@@ -1749,13 +1749,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2256,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2563,17 +2563,17 @@
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" ht="70.5" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -2625,7 +2625,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="120">
+    <row r="4" spans="1:11" ht="60">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -4061,8 +4061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4117,10 +4117,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>209</v>
       </c>
     </row>

--- a/修改日志.xlsx
+++ b/修改日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="212">
   <si>
     <t>日期</t>
   </si>
@@ -1605,6 +1605,13 @@
   </si>
   <si>
     <t>用户可以控制导出的dwg、dxf里面的视图，参数说明参考AGM.Modelling.ExportDrw</t>
+  </si>
+  <si>
+    <t>修改：
+bugfixs
+1. Some entities cannot be saved to SAT if back-saving to R16
+2. 2D Drawing zoom to extent
+3. 2D Drawing text size</t>
   </si>
 </sst>
 </file>
@@ -2254,10 +2261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2528,6 +2535,14 @@
       </c>
       <c r="B33" s="3" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="75">
+      <c r="A34" s="1">
+        <v>20191009</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/修改日志.xlsx
+++ b/修改日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="213">
   <si>
     <t>日期</t>
   </si>
@@ -1612,6 +1612,11 @@
 1. Some entities cannot be saved to SAT if back-saving to R16
 2. 2D Drawing zoom to extent
 3. 2D Drawing text size</t>
+  </si>
+  <si>
+    <t>修改：
+bugfixs
+1. 2D Drawing zoom to extent (AutoCAD Ok but DraftSight NG)</t>
   </si>
 </sst>
 </file>
@@ -2261,10 +2266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2545,6 +2550,14 @@
         <v>211</v>
       </c>
     </row>
+    <row r="35" spans="1:2" ht="45">
+      <c r="A35" s="1">
+        <v>20191023</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2555,8 +2568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView topLeftCell="B75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView topLeftCell="B63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/修改日志.xlsx
+++ b/修改日志.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="214">
   <si>
     <t>日期</t>
   </si>
@@ -1618,11 +1618,17 @@
 bugfixs
 1. 2D Drawing zoom to extent (AutoCAD Ok but DraftSight NG)</t>
   </si>
+  <si>
+    <t>修改：
+bugfix for 2D Drawing module
+1. filter out all bodies from the input SAT file
+2. apply the transformation to each body</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1770,15 +1776,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
-    <cellStyle name="注释" xfId="1" builtinId="10"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1980,7 +1989,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2022,7 +2031,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2057,7 +2066,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2266,10 +2275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2556,6 +2565,14 @@
       </c>
       <c r="B35" s="3" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="60">
+      <c r="A36" s="1">
+        <v>20191208</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/修改日志.xlsx
+++ b/修改日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="215">
   <si>
     <t>日期</t>
   </si>
@@ -1623,6 +1623,12 @@
 bugfix for 2D Drawing module
 1. filter out all bodies from the input SAT file
 2. apply the transformation to each body</t>
+  </si>
+  <si>
+    <t>修改：
+bugfix for 2D Drawing module
+1. filter out all solid bodies from the input SAT file
+2. comment out all messagebox</t>
   </si>
 </sst>
 </file>
@@ -2275,10 +2281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2575,6 +2581,14 @@
         <v>213</v>
       </c>
     </row>
+    <row r="37" spans="1:2" ht="60">
+      <c r="A37" s="1">
+        <v>20191213</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2585,8 +2599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView topLeftCell="B63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView topLeftCell="B78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/修改日志.xlsx
+++ b/修改日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="229">
   <si>
     <t>日期</t>
   </si>
@@ -1629,6 +1629,188 @@
 bugfix for 2D Drawing module
 1. filter out all solid bodies from the input SAT file
 2. comment out all messagebox</t>
+  </si>
+  <si>
+    <t>logpath：log文件的路径，如果设置路径就在用户给定的路径下生成，如果设置“.”就在当前导出的文件所在的路径下生成，如果不设置不生成文件</t>
+  </si>
+  <si>
+    <t>inbody ：待切割的body</t>
+  </si>
+  <si>
+    <t>position ：切割平面的原点</t>
+  </si>
+  <si>
+    <t>normal ：切割平面的法向</t>
+  </si>
+  <si>
+    <t>out body1 ： 切割后生成的第一个body，沿着切平面法向</t>
+  </si>
+  <si>
+    <t>out body2 ： 切割后生成的第二个body，背离切平面法向</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AGM.Modelling.SplitBody( inbody, position, normal, out body1, out body2 )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>切割后inbody失效，生成的body在body1和body2里面返回；沿着切平面方向的body放到body1中先返回，背离切平面方向的body放到body2中后返回</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新增：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGM.Modelling.SplitBody</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+//AGM.Modelling.SplitBody( inbody, position, normal, out body1, out body2 )
+（命令参数参考js_files\radf_init.js，命令使用参考js_files\Cylinder.js）
+分割模型
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGM.Modelling.ReflectBodies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+//AGM.Modelling.ReflectBodies( ModelObject | Array of ModelObject, position, normal, out ModelObject | Array of ModelObject )
+（命令参数参考js_files\radf_init.js，命令使用参考js_files\Combine&amp;Separate.js）
+模型平面镜像</t>
+    </r>
+  </si>
+  <si>
+    <t>ModelObject | Array of ModelObject： 输入的可以是一个body，也可以是一组body</t>
+  </si>
+  <si>
+    <t>position ：镜像平面的原点</t>
+  </si>
+  <si>
+    <t>normal ：镜像平面的法向</t>
+  </si>
+  <si>
+    <t>out ModelObject | Array of ModelObject： 输入的可以是一个body，返回的就是这个body的镜像体；输入的是一组body，按照输入顺序返回这组body的镜像体</t>
+  </si>
+  <si>
+    <r>
+      <t>AGM.Modelling.ReflectBodies( ModelObject | Array of ModelObject, position, normal, out ModelObject | Array of ModelObject )
+输入的可以是一个body，返回的就是这个body的镜像体；输入的是一组body，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按照输入顺序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">返回这组body的镜像体。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>原始输入的body还在，返回的是镜像后的body</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">修改：
+AGM.Modelling.ExportFile
+//AGM.Modelling.ExportFile( filepath, unit, logpath )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">最后一个参数logpath：log文件的路径，如果设置路径就在用户给定的路径下生成，如果设置“.”就在当前导出的文件所在的路径下生成，如果不设置不生成文件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bugfix
+AGM.Modelling.Separate</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1782,9 +1964,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="1" builtinId="10"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1801,44 +1983,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2685724</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171183</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7105650" y="5600700"/>
-          <a:ext cx="2609524" cy="2133333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1860,7 +2004,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1885,8 +2029,8 @@
       <xdr:rowOff>140805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3770657</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>760757</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>131293</xdr:rowOff>
     </xdr:to>
@@ -1898,7 +2042,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1925,8 +2069,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>957119</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>1656522</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>2982</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1936,7 +2080,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1962,7 +2106,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>52005</xdr:colOff>
+      <xdr:colOff>1629345</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>357013</xdr:rowOff>
     </xdr:to>
@@ -1974,7 +2118,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1991,11 +2135,66 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>387214</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>487680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2712720</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6064114" y="5036820"/>
+          <a:ext cx="2325506" cy="2186940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2281,16 +2480,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="98.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="98.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2301,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="150">
+    <row r="2" spans="1:2" ht="144">
       <c r="A2" s="1">
         <v>20180613</v>
       </c>
@@ -2309,7 +2508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30">
+    <row r="3" spans="1:2" ht="28.8">
       <c r="A3" s="1">
         <v>20180613</v>
       </c>
@@ -2333,7 +2532,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45">
+    <row r="6" spans="1:2" ht="43.2">
       <c r="A6" s="1">
         <v>20180702</v>
       </c>
@@ -2341,7 +2540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45">
+    <row r="7" spans="1:2" ht="43.2">
       <c r="A7" s="1">
         <v>20180706</v>
       </c>
@@ -2349,7 +2548,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="105">
+    <row r="8" spans="1:2" ht="100.8">
       <c r="A8" s="1">
         <v>20180707</v>
       </c>
@@ -2357,7 +2556,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30">
+    <row r="9" spans="1:2" ht="28.8">
       <c r="A9" s="1">
         <v>20180714</v>
       </c>
@@ -2365,7 +2564,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="45">
+    <row r="10" spans="1:2" ht="43.2">
       <c r="A10" s="1">
         <v>20180723</v>
       </c>
@@ -2373,7 +2572,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30">
+    <row r="11" spans="1:2" ht="28.8">
       <c r="A11" s="1">
         <v>20180725</v>
       </c>
@@ -2381,7 +2580,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="75">
+    <row r="12" spans="1:2" ht="72">
       <c r="A12" s="1">
         <v>20181011</v>
       </c>
@@ -2389,7 +2588,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="105">
+    <row r="13" spans="1:2" ht="100.8">
       <c r="A13" s="1">
         <v>20181030</v>
       </c>
@@ -2397,7 +2596,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="105">
+    <row r="14" spans="1:2" ht="100.8">
       <c r="A14" s="1">
         <v>20181031</v>
       </c>
@@ -2405,7 +2604,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="105">
+    <row r="15" spans="1:2" ht="100.8">
       <c r="A15" s="1">
         <v>20181105</v>
       </c>
@@ -2413,7 +2612,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="60">
+    <row r="16" spans="1:2" ht="57.6">
       <c r="A16" s="1">
         <v>20181107</v>
       </c>
@@ -2421,7 +2620,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="120">
+    <row r="17" spans="1:2" ht="115.2">
       <c r="A17" s="1">
         <v>20181129</v>
       </c>
@@ -2429,7 +2628,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="315">
+    <row r="18" spans="1:2" ht="302.39999999999998">
       <c r="A18" s="1">
         <v>20181205</v>
       </c>
@@ -2437,7 +2636,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="45">
+    <row r="19" spans="1:2" ht="43.2">
       <c r="A19" s="1">
         <v>20181208</v>
       </c>
@@ -2445,7 +2644,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="225">
+    <row r="20" spans="1:2" ht="216">
       <c r="A20" s="1">
         <v>20181228</v>
       </c>
@@ -2453,7 +2652,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="120">
+    <row r="21" spans="1:2" ht="115.2">
       <c r="A21" s="1">
         <v>20181228</v>
       </c>
@@ -2461,7 +2660,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45">
+    <row r="22" spans="1:2" ht="43.2">
       <c r="A22" s="1">
         <v>20190213</v>
       </c>
@@ -2469,7 +2668,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="90">
+    <row r="23" spans="1:2" ht="86.4">
       <c r="A23" s="1">
         <v>20190221</v>
       </c>
@@ -2477,7 +2676,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="105">
+    <row r="24" spans="1:2" ht="100.8">
       <c r="A24" s="1">
         <v>20190222</v>
       </c>
@@ -2485,7 +2684,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="75">
+    <row r="25" spans="1:2" ht="72">
       <c r="A25" s="1">
         <v>20190227</v>
       </c>
@@ -2493,7 +2692,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="120">
+    <row r="26" spans="1:2" ht="115.2">
       <c r="A26" s="1">
         <v>20190228</v>
       </c>
@@ -2501,7 +2700,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="45">
+    <row r="27" spans="1:2" ht="43.2">
       <c r="A27" s="1">
         <v>20190312</v>
       </c>
@@ -2509,7 +2708,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="45">
+    <row r="28" spans="1:2" ht="43.2">
       <c r="A28" s="1">
         <v>20190313</v>
       </c>
@@ -2517,7 +2716,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30">
+    <row r="29" spans="1:2" ht="28.8">
       <c r="A29" s="1">
         <v>20190505</v>
       </c>
@@ -2525,7 +2724,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30">
+    <row r="30" spans="1:2" ht="28.8">
       <c r="A30" s="1">
         <v>20190507</v>
       </c>
@@ -2533,7 +2732,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="150">
+    <row r="31" spans="1:2" ht="129.6">
       <c r="A31" s="1">
         <v>20190524</v>
       </c>
@@ -2541,7 +2740,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="240">
+    <row r="32" spans="1:2" ht="230.4">
       <c r="A32" s="1">
         <v>20190527</v>
       </c>
@@ -2549,7 +2748,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="225">
+    <row r="33" spans="1:2" ht="216">
       <c r="A33" s="1">
         <v>20190528</v>
       </c>
@@ -2557,7 +2756,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="75">
+    <row r="34" spans="1:2" ht="72">
       <c r="A34" s="1">
         <v>20191009</v>
       </c>
@@ -2565,7 +2764,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="45">
+    <row r="35" spans="1:2" ht="43.2">
       <c r="A35" s="1">
         <v>20191023</v>
       </c>
@@ -2573,7 +2772,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="60">
+    <row r="36" spans="1:2" ht="57.6">
       <c r="A36" s="1">
         <v>20191208</v>
       </c>
@@ -2581,12 +2780,28 @@
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="60">
+    <row r="37" spans="1:2" ht="57.6">
       <c r="A37" s="1">
         <v>20191213</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="144">
+      <c r="A38" s="1">
+        <v>20190313</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="100.8">
+      <c r="A39" s="1">
+        <v>20190314</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2597,22 +2812,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView topLeftCell="B78" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" customWidth="1"/>
-    <col min="2" max="2" width="59.7109375" customWidth="1"/>
-    <col min="3" max="3" width="58.28515625" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" customWidth="1"/>
-    <col min="5" max="5" width="66.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="51.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="58.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.5546875" customWidth="1"/>
+    <col min="5" max="5" width="43.88671875" customWidth="1"/>
+    <col min="6" max="6" width="41.77734375" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2659,7 +2874,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="30">
+    <row r="3" spans="1:11" ht="43.2">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2684,7 +2899,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="60">
+    <row r="4" spans="1:11" ht="43.2">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -2709,7 +2924,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="60">
+    <row r="5" spans="1:11" ht="43.2">
       <c r="A5" s="5" t="s">
         <v>170</v>
       </c>
@@ -2734,7 +2949,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="60">
+    <row r="6" spans="1:11" ht="28.8">
       <c r="A6" s="5" t="s">
         <v>173</v>
       </c>
@@ -2759,7 +2974,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="60">
+    <row r="7" spans="1:11" ht="43.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -2780,7 +2995,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="75">
+    <row r="8" spans="1:11" ht="57.6">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -2805,7 +3020,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="45">
+    <row r="9" spans="1:11" ht="57.6">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -2993,7 +3208,7 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="30">
+    <row r="23" spans="1:11" ht="57.6">
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
@@ -3014,7 +3229,7 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" ht="75">
+    <row r="24" spans="1:11" ht="100.8">
       <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
@@ -3035,7 +3250,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" ht="30">
+    <row r="25" spans="1:11" ht="43.2">
       <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
@@ -3054,7 +3269,7 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="165">
+    <row r="26" spans="1:11" ht="259.2">
       <c r="A26" s="6" t="s">
         <v>39</v>
       </c>
@@ -3075,7 +3290,7 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" ht="90">
+    <row r="27" spans="1:11" ht="86.4">
       <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
@@ -3100,7 +3315,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" ht="45">
+    <row r="28" spans="1:11" ht="43.2">
       <c r="A28" s="6" t="s">
         <v>50</v>
       </c>
@@ -3119,7 +3334,7 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" ht="60">
+    <row r="29" spans="1:11" ht="57.6">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -3138,7 +3353,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" ht="45">
+    <row r="30" spans="1:11" ht="43.2">
       <c r="A30" s="6" t="s">
         <v>27</v>
       </c>
@@ -3157,7 +3372,7 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" ht="150">
+    <row r="31" spans="1:11" ht="72">
       <c r="A31" s="5" t="s">
         <v>6</v>
       </c>
@@ -3182,7 +3397,7 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" ht="45">
+    <row r="32" spans="1:11" ht="43.2">
       <c r="A32" s="5" t="s">
         <v>6</v>
       </c>
@@ -3203,7 +3418,7 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" ht="120">
+    <row r="33" spans="1:11" ht="72">
       <c r="A33" s="5" t="s">
         <v>6</v>
       </c>
@@ -3220,7 +3435,7 @@
         <v>185</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -3228,7 +3443,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" ht="60">
+    <row r="34" spans="1:11" ht="86.4">
       <c r="A34" s="5" t="s">
         <v>6</v>
       </c>
@@ -3257,7 +3472,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
     </row>
-    <row r="35" spans="1:11" ht="60">
+    <row r="35" spans="1:11" ht="57.6">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -3282,7 +3497,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" spans="1:11" ht="45">
+    <row r="36" spans="1:11" ht="57.6">
       <c r="A36" s="5" t="s">
         <v>6</v>
       </c>
@@ -3303,7 +3518,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" ht="135">
+    <row r="37" spans="1:11" ht="86.4">
       <c r="A37" s="5" t="s">
         <v>6</v>
       </c>
@@ -3330,7 +3545,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" ht="45">
+    <row r="38" spans="1:11" ht="57.6">
       <c r="A38" s="5" t="s">
         <v>6</v>
       </c>
@@ -3355,7 +3570,7 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" ht="60">
+    <row r="39" spans="1:11" ht="57.6">
       <c r="A39" s="5" t="s">
         <v>6</v>
       </c>
@@ -3384,7 +3599,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:11" ht="75">
+    <row r="40" spans="1:11" ht="86.4">
       <c r="A40" s="5" t="s">
         <v>6</v>
       </c>
@@ -3688,7 +3903,7 @@
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" ht="60">
+    <row r="62" spans="1:11" ht="57.6">
       <c r="A62" s="5" t="s">
         <v>6</v>
       </c>
@@ -3711,7 +3926,7 @@
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
     </row>
-    <row r="63" spans="1:11" ht="30">
+    <row r="63" spans="1:11" ht="43.2">
       <c r="A63" s="5" t="s">
         <v>6</v>
       </c>
@@ -3734,7 +3949,7 @@
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" spans="1:11" ht="30">
+    <row r="64" spans="1:11" ht="43.2">
       <c r="A64" s="5" t="s">
         <v>6</v>
       </c>
@@ -3755,7 +3970,7 @@
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="1:11" ht="30">
+    <row r="65" spans="1:11" ht="28.8">
       <c r="A65" s="5" t="s">
         <v>6</v>
       </c>
@@ -3774,7 +3989,7 @@
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="1:11" ht="30">
+    <row r="66" spans="1:11" ht="28.8">
       <c r="A66" s="5" t="s">
         <v>6</v>
       </c>
@@ -3791,7 +4006,7 @@
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:11" ht="45">
+    <row r="67" spans="1:11" ht="57.6">
       <c r="A67" s="5" t="s">
         <v>6</v>
       </c>
@@ -3812,7 +4027,7 @@
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="1:11" ht="45">
+    <row r="68" spans="1:11" ht="57.6">
       <c r="A68" s="5" t="s">
         <v>131</v>
       </c>
@@ -3835,7 +4050,7 @@
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="1:11" ht="30">
+    <row r="69" spans="1:11" ht="43.2">
       <c r="A69" s="6" t="s">
         <v>132</v>
       </c>
@@ -3854,7 +4069,7 @@
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="1:11" ht="45">
+    <row r="70" spans="1:11" ht="57.6">
       <c r="A70" s="5" t="s">
         <v>6</v>
       </c>
@@ -3875,7 +4090,7 @@
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:11" ht="45">
+    <row r="71" spans="1:11" ht="57.6">
       <c r="A71" s="5" t="s">
         <v>6</v>
       </c>
@@ -3896,7 +4111,7 @@
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:11" ht="75">
+    <row r="72" spans="1:11" ht="72">
       <c r="A72" s="5" t="s">
         <v>144</v>
       </c>
@@ -3917,7 +4132,7 @@
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="1:11" ht="30">
+    <row r="73" spans="1:11" ht="28.8">
       <c r="A73" s="5" t="s">
         <v>6</v>
       </c>
@@ -3936,7 +4151,7 @@
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:11" ht="30">
+    <row r="74" spans="1:11" ht="28.8">
       <c r="A74" s="5" t="s">
         <v>6</v>
       </c>
@@ -3957,7 +4172,7 @@
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="1:11" ht="45">
+    <row r="75" spans="1:11" ht="57.6">
       <c r="A75" s="5" t="s">
         <v>6</v>
       </c>
@@ -3978,7 +4193,7 @@
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:11" ht="60">
+    <row r="76" spans="1:11" ht="86.4">
       <c r="A76" s="5" t="s">
         <v>6</v>
       </c>
@@ -3999,7 +4214,7 @@
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="1:11" ht="90">
+    <row r="77" spans="1:11" ht="100.8">
       <c r="A77" s="5" t="s">
         <v>6</v>
       </c>
@@ -4020,7 +4235,7 @@
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="1:11" ht="45">
+    <row r="78" spans="1:11" ht="57.6">
       <c r="A78" s="5" t="s">
         <v>6</v>
       </c>
@@ -4041,7 +4256,7 @@
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" spans="1:11" ht="45">
+    <row r="79" spans="1:11" ht="57.6">
       <c r="A79" s="5" t="s">
         <v>6</v>
       </c>
@@ -4062,7 +4277,7 @@
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="1:11" ht="45">
+    <row r="80" spans="1:11" ht="72">
       <c r="A80" s="5" t="s">
         <v>6</v>
       </c>
@@ -4083,7 +4298,7 @@
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
     </row>
-    <row r="81" spans="1:11" ht="150">
+    <row r="81" spans="1:13" ht="144">
       <c r="A81" s="5" t="s">
         <v>6</v>
       </c>
@@ -4105,6 +4320,60 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
+    </row>
+    <row r="82" spans="1:13" ht="86.4">
+      <c r="A82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+    </row>
+    <row r="83" spans="1:13" ht="129.6">
+      <c r="A83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4124,10 +4393,10 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" customWidth="1"/>
+    <col min="2" max="2" width="60.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4159,7 +4428,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30">
+    <row r="5" spans="1:2" ht="28.8">
       <c r="A5" s="14" t="s">
         <v>192</v>
       </c>
